--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure6.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure6.xlsx
@@ -34,13 +34,25 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>insulin</t>
   </si>
   <si>
     <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>age</t>
   </si>
   <si>
     <t>race</t>
@@ -49,25 +61,13 @@
     <t>diabetesmed</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
+    <t>change</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>change</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.311252535070651</v>
+        <v>1.302615463592274</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.298262131793837</v>
+        <v>1.297666053912149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1.296595318628698</v>
+        <v>1.237829710443666</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1.250654927460132</v>
+        <v>1.228590233667902</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -563,10 +563,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1.202942606568083</v>
+        <v>1.218142425064465</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.170129872138808</v>
+        <v>1.182944462649478</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1.164563609320237</v>
+        <v>1.170624262469544</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.16446655052482</v>
+        <v>1.164832873360086</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1.163702756203333</v>
+        <v>1.164775852073224</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>1.161517312026647</v>
+        <v>1.164707094958565</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1.161394510621746</v>
+        <v>1.161450025689066</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -719,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.154700538379251</v>
+        <v>1.144008636492166</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.145881092548817</v>
+        <v>1.143543749793731</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.142080481440322</v>
+        <v>1.135292424395093</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1.134069297228082</v>
+        <v>1.131719606361459</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -784,10 +784,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1.113064333386595</v>
+        <v>1.120410259206943</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -801,10 +801,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>1.080123449734643</v>
+        <v>1.097739550127601</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9838640379184243</v>
+        <v>0.9840582381359531</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9777057190383649</v>
+        <v>0.9790856996859327</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9757916536611119</v>
+        <v>0.9758521698557879</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9741819842677074</v>
+        <v>0.9748825390940201</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9687130938145085</v>
+        <v>0.9680790497192382</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9668195235726121</v>
+        <v>0.9668515547842584</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9657992818102195</v>
+        <v>0.9664443874546689</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9656882065477623</v>
+        <v>0.9663740332205246</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9648338522558622</v>
+        <v>0.965741009577386</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9647372578123891</v>
+        <v>0.9655046562388734</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9647244983983395</v>
+        <v>0.9647809991277887</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9638765744794153</v>
+        <v>0.9627998127868251</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9354251438436855</v>
+        <v>0.9348906879962617</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1036,13 +1036,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.8626132582993549</v>
+        <v>0.7547450315158153</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1053,13 +1053,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.8097991404584991</v>
+        <v>0.6899165814564768</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1073,10 +1073,10 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>0.7676494735787384</v>
+        <v>0.6789696992803592</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1084,16 +1084,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7036320339607104</v>
+        <v>0.6332979239443322</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,16 +1101,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6987003712984557</v>
+        <v>0.629940788348712</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,7 +1118,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6963924224279279</v>
+        <v>0.6172133998483676</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.6855990686613487</v>
+        <v>0.602109491238356</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.6761234037828132</v>
+        <v>0.5857546452217234</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.6544556208862591</v>
+        <v>0.5808215760518558</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6544556208862591</v>
+        <v>0.5748345697752489</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.6436712031017453</v>
+        <v>0.573633129919641</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.6399404734221844</v>
+        <v>0.5577733510227171</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.6387601834405446</v>
+        <v>0.5556725023109939</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.6103679378930738</v>
+        <v>0.5288015075524901</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.5905416969176006</v>
+        <v>0.5198828696647324</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5877538136452587</v>
+        <v>0.5173748811807234</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>0.5646006963865289</v>
+        <v>0.5088602577891667</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5563589102341355</v>
+        <v>0.5063236478416117</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.5329663743109685</v>
+        <v>0.5024855165595915</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1359,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0.5322218211706754</v>
+        <v>0.4921295563731327</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>0.5244192183502119</v>
+        <v>0.4908208258383513</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.5190030169430613</v>
+        <v>0.485071250072666</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0.5074346051882056</v>
+        <v>0.4703852086471399</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E57">
-        <v>0.4848120615689497</v>
+        <v>0.4659526990660233</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1444,13 +1444,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4771187236136979</v>
+        <v>0.4442737865091722</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,7 +1458,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4746393218810533</v>
+        <v>0.4340573661412156</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4701840723486611</v>
+        <v>0.427617987059879</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,7 +1492,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4664124508223889</v>
+        <v>0.4183300132670378</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.460122160079543</v>
+        <v>0.4151580071778071</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1529,13 +1529,13 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63">
-        <v>0.4381390888428159</v>
+        <v>0.4132730031546074</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.4237069045990423</v>
+        <v>0.4126213885105936</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.4185659525782143</v>
+        <v>0.4073500533129534</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0.4185464841810165</v>
+        <v>0.3953057288578928</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
         <v>28</v>
       </c>
       <c r="E67">
-        <v>0.4137799561033404</v>
+        <v>0.3950703460687535</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
       </c>
       <c r="E68">
-        <v>0.4117560246324256</v>
+        <v>0.3811126316790036</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3937680904895258</v>
+        <v>0.377353067972174</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,7 +1645,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -1654,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="E70">
-        <v>0.390094748802747</v>
+        <v>0.3772369180073609</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.390094748802747</v>
+        <v>0.3682395033855</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1682,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3897128815619909</v>
+        <v>0.3638890685872388</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,7 +1696,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -1705,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="E73">
-        <v>0.3888789062454041</v>
+        <v>0.3615266811032603</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3876988791878538</v>
+        <v>0.3535533905932738</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0.384995251754509</v>
+        <v>0.3529997718463478</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3801037281706753</v>
+        <v>0.3513176099002553</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1770,10 +1770,10 @@
         <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3734700864023144</v>
+        <v>0.3508512605989584</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3721072349767036</v>
+        <v>0.3355417868329669</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3702085630936409</v>
+        <v>0.3309247028413488</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80">
-        <v>0.368609594087823</v>
+        <v>0.3307432914981059</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3537567807298857</v>
+        <v>0.3295996548351818</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3461457416922847</v>
+        <v>0.3207134902949092</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>0.3430982189169013</v>
+        <v>0.3207134902949092</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3427154950846595</v>
+        <v>0.318342386659788</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3191376937067408</v>
+        <v>0.3121392117459819</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
         <v>26</v>
       </c>
       <c r="E86">
-        <v>0.3118059422525014</v>
+        <v>0.3087000191593617</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
       <c r="E87">
-        <v>0.3047020296714155</v>
+        <v>0.3086066999241839</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.3037357949865246</v>
+        <v>0.3065624437684115</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.3027227064854887</v>
+        <v>0.3055948650631712</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
       </c>
       <c r="E90">
-        <v>0.298689655371447</v>
+        <v>0.300644012817549</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.296755072309794</v>
+        <v>0.2890473961656451</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E92">
-        <v>0.291063706477604</v>
+        <v>0.28854197946105</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.2861611722298683</v>
+        <v>0.2836102653443552</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2844954991273919</v>
+        <v>0.281407086793467</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>0.2842134986403039</v>
+        <v>0.2806331944370902</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2813871311336655</v>
+        <v>0.2806214002420235</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2704774202035222</v>
+        <v>0.2784432249065639</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.266814938386028</v>
+        <v>0.2691889131516037</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2141,13 +2141,13 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
       </c>
       <c r="E99">
-        <v>0.266814938386028</v>
+        <v>0.2686076546751267</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.264217068310387</v>
+        <v>0.2661742744957675</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0.259610253048163</v>
+        <v>0.2619692119718625</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2586466407196102</v>
+        <v>0.260224340433389</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2570022857995088</v>
+        <v>0.2559291015644295</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2566857189500301</v>
+        <v>0.2558800020453455</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2555333118667505</v>
+        <v>0.2557525895828395</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2547484093445532</v>
+        <v>0.2557094929448894</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2543751462758327</v>
+        <v>0.2529595564892967</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2534070809198391</v>
+        <v>0.252840253865363</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2508681696225102</v>
+        <v>0.2527145898136699</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2506921636710737</v>
+        <v>0.2516496963808467</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2504910640211215</v>
+        <v>0.2509914009586703</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>0.2503316971075362</v>
+        <v>0.2503173301270226</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E113">
-        <v>0.2501139008442533</v>
+        <v>0.2406530993663506</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E114">
-        <v>0.2496632997126031</v>
+        <v>0.2395746533332283</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.2440182243119111</v>
+        <v>0.2392474096818591</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
         <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2416811489421652</v>
+        <v>0.2387843364767078</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
@@ -2453,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="E117">
-        <v>0.2395775533583574</v>
+        <v>0.2358262978442311</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
       </c>
       <c r="E118">
-        <v>0.2393502539181598</v>
+        <v>0.2338928743456238</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2393351419854882</v>
+        <v>0.2325003416969342</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2382845083512694</v>
+        <v>0.2296378708024407</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
       </c>
       <c r="E121">
-        <v>0.238022751728131</v>
+        <v>0.228266928331661</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E122">
-        <v>0.2353346290382109</v>
+        <v>0.2281683777663458</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2339474848787038</v>
+        <v>0.2269843729447187</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2304719930037984</v>
+        <v>0.2265735161518916</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2302324296522105</v>
+        <v>0.2263298738658313</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2299529917120481</v>
+        <v>0.2253282345752405</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>0.2299149632390703</v>
+        <v>0.2247875527150902</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2298218535866497</v>
+        <v>0.224747495405144</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
         <v>26</v>
       </c>
       <c r="E129">
-        <v>0.229656845128498</v>
+        <v>0.2246079509959703</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2269922064777973</v>
+        <v>0.2241144353654492</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0.2263241855270269</v>
+        <v>0.2239614632593317</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2253666080546742</v>
+        <v>0.2239549271833988</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,7 +2716,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>25</v>
@@ -2725,7 +2725,7 @@
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2237446783042158</v>
+        <v>0.2237184883167634</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134">
-        <v>0.2236838160113624</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2753,13 +2753,13 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>0.2235948398103967</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>0.2235252085846271</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2232361017830143</v>
+        <v>0.2226604990865432</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>0.2230680438604717</v>
+        <v>0.2213701992620134</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2225631549120381</v>
+        <v>0.2213203319893565</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>0.2216363937729656</v>
+        <v>0.2212864302189093</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2212592630058992</v>
+        <v>0.2204044808414942</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.219296437476633</v>
+        <v>0.2201875377437179</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.2192919501886311</v>
+        <v>0.2196997562726347</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E144">
-        <v>0.2190763728580354</v>
+        <v>0.2191917225756005</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2189673321569196</v>
+        <v>0.2190554961432951</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.2188729941625612</v>
+        <v>0.2188598062699977</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E147">
-        <v>0.2166346254682903</v>
+        <v>0.217485018375906</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.216180984462793</v>
+        <v>0.2173072873300548</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.2152893129556886</v>
+        <v>0.2167492147945771</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.215195734834723</v>
+        <v>0.2167271340152726</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>0.2142496229416657</v>
+        <v>0.2167138952708274</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D152" t="s">
         <v>29</v>
       </c>
       <c r="E152">
-        <v>0.211852322023846</v>
+        <v>0.215547747475399</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2086138161606113</v>
+        <v>0.2136760606017099</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2068338917791361</v>
+        <v>0.2126057394766814</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>0.2064522344139041</v>
+        <v>0.212295905694741</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>0.2062348390021481</v>
+        <v>0.2121672970533122</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2058073918588247</v>
+        <v>0.2099397219369252</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E158">
-        <v>0.2049139400829905</v>
+        <v>0.2089889563254948</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,7 +3158,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -3167,7 +3167,7 @@
         <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2047764842528236</v>
+        <v>0.2075297507534551</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E160">
-        <v>0.2040407665380426</v>
+        <v>0.206318887585586</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.2037053084902471</v>
+        <v>0.2048373469767571</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2036091312159882</v>
+        <v>0.2036546441832762</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E163">
-        <v>0.2032734703995741</v>
+        <v>0.2028303794855769</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,7 +3243,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
         <v>18</v>
@@ -3252,7 +3252,7 @@
         <v>26</v>
       </c>
       <c r="E164">
-        <v>0.2016097655544098</v>
+        <v>0.2020946177735632</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3266,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2011723654841519</v>
+        <v>0.2019667983610474</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.2001147197161567</v>
+        <v>0.2018711178349125</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167">
-        <v>0.1995240742539757</v>
+        <v>0.2018522867579142</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1995061575521594</v>
+        <v>0.2014982489638613</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1989119313640356</v>
+        <v>0.2014236040144059</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.1984981137671252</v>
+        <v>0.1984819611808177</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1947122426191575</v>
+        <v>0.1967558290392441</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1945001015639183</v>
+        <v>0.196508932424434</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1940276648892594</v>
+        <v>0.1963843148420631</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1923479104554669</v>
+        <v>0.1958750071229458</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
         <v>27</v>
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1894320373537758</v>
+        <v>0.1906973737555703</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,7 +3464,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
@@ -3473,7 +3473,7 @@
         <v>27</v>
       </c>
       <c r="E177">
-        <v>0.1894320373537758</v>
+        <v>0.1901445497109816</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1894320373537758</v>
+        <v>0.1901379254000519</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1867188945399776</v>
+        <v>0.1866354006815513</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3518,13 +3518,13 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E180">
-        <v>0.1866853953701877</v>
+        <v>0.1861642324498757</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E181">
-        <v>0.1862017433223946</v>
+        <v>0.1810461266030768</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1857758975942962</v>
+        <v>0.181007497268642</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3569,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
       </c>
       <c r="E183">
-        <v>0.182374308111766</v>
+        <v>0.1804208153860561</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E184">
-        <v>0.1802914635012026</v>
+        <v>0.1775371195925456</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1782575903860247</v>
+        <v>0.1773399771740512</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1776928483117023</v>
+        <v>0.1771017963144716</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3643,7 +3643,7 @@
         <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1772480097428379</v>
+        <v>0.1765343860968155</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3654,13 +3654,13 @@
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D188" t="s">
         <v>26</v>
       </c>
       <c r="E188">
-        <v>0.1771348867269923</v>
+        <v>0.1758130379255203</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1760148276564316</v>
+        <v>0.1737154853621608</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3688,13 +3688,13 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1756495086337293</v>
+        <v>0.1725119590310099</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1754386744241499</v>
+        <v>0.1722509349125104</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
         <v>28</v>
       </c>
       <c r="E192">
-        <v>0.174713616676861</v>
+        <v>0.1696047981056785</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E193">
-        <v>0.1739878385864</v>
+        <v>0.1689463988540236</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1725692310478394</v>
+        <v>0.1685395581291786</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E195">
-        <v>0.1720551083113477</v>
+        <v>0.1680325155668556</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E196">
-        <v>0.1705627757927993</v>
+        <v>0.1672670009981512</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
         <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1666960428638905</v>
+        <v>0.1668554181152325</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1642386400990921</v>
+        <v>0.1662089544167252</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3841,13 +3841,13 @@
         <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E199">
-        <v>0.163534143863636</v>
+        <v>0.1620722134041841</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.1621342365942569</v>
+        <v>0.1584321451143202</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D201" t="s">
         <v>26</v>
       </c>
       <c r="E201">
-        <v>0.1618706777069014</v>
+        <v>0.1582686037463234</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1601884998233612</v>
+        <v>0.157794315662333</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1578157624265871</v>
+        <v>0.1568686242937444</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
         <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1577684908576787</v>
+        <v>0.1568569038812409</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1554756729076975</v>
+        <v>0.1560490831045663</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
         <v>29</v>
       </c>
       <c r="E206">
-        <v>0.1531271577106119</v>
+        <v>0.1533831107725034</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1521765913957621</v>
+        <v>0.1524394846296696</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3994,13 +3994,13 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1510633619102073</v>
+        <v>0.1517939918912411</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E209">
-        <v>0.1508276923957073</v>
+        <v>0.1500075599274761</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D210" t="s">
         <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1487624918634614</v>
+        <v>0.1495882872712548</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D211" t="s">
         <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1480188721447308</v>
+        <v>0.1481354069698459</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
         <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1475870758768237</v>
+        <v>0.1474360875394112</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E213">
-        <v>0.1475498028881962</v>
+        <v>0.1472032927997231</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
         <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1474383707337452</v>
+        <v>0.1465971499516441</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1466515933414735</v>
+        <v>0.1461692456539614</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1465806269401064</v>
+        <v>0.1461536335211476</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E217">
-        <v>0.145689427778576</v>
+        <v>0.14591835170293</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
       </c>
       <c r="E218">
-        <v>0.1454085042557815</v>
+        <v>0.1457685119913923</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1445134831436877</v>
+        <v>0.145127951951001</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1444968563592</v>
+        <v>0.1448778488471605</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
         <v>26</v>
       </c>
       <c r="E221">
-        <v>0.14398350838964</v>
+        <v>0.1445932889962055</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1432004352029111</v>
+        <v>0.1442543838347499</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E223">
-        <v>0.1427983395955961</v>
+        <v>0.1435749916115421</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.142709962943641</v>
+        <v>0.1430282439867042</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E225">
-        <v>0.1424916751180217</v>
+        <v>0.1423164793205976</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
         <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1423228456749491</v>
+        <v>0.1414777814916098</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1421768072179118</v>
+        <v>0.1409900487086508</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E228">
-        <v>0.1411455925610914</v>
+        <v>0.1409400843828205</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1411345741006155</v>
+        <v>0.1407785440712183</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1408529345033512</v>
+        <v>0.1406534596586629</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E231">
-        <v>0.1404740977788884</v>
+        <v>0.1404765918441166</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1404366745151912</v>
+        <v>0.1398143726769384</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E233">
-        <v>0.1402776761410502</v>
+        <v>0.139224231142443</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4436,13 +4436,13 @@
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1400217703523751</v>
+        <v>0.1390627696746074</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1396266940670069</v>
+        <v>0.13905454669567</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4470,13 +4470,13 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1377668192194601</v>
+        <v>0.138692215892749</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1373605598257597</v>
+        <v>0.1385203379757479</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.1371904029529344</v>
+        <v>0.1384102796441407</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.1369422566164536</v>
+        <v>0.138201188582271</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
         <v>29</v>
       </c>
       <c r="E240">
-        <v>0.136712131176301</v>
+        <v>0.1380862899059866</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>0.1361699132345332</v>
+        <v>0.1370228370821807</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1355350602791449</v>
+        <v>0.1365872089056019</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.1354818560014016</v>
+        <v>0.1361273718026199</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1351850666038806</v>
+        <v>0.1358600616855928</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>0.13503446117844</v>
+        <v>0.135123358042082</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1350019758557691</v>
+        <v>0.1350710724726532</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4657,13 +4657,13 @@
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1347780997825043</v>
+        <v>0.1350323263315124</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1342005265049652</v>
+        <v>0.1340899808028775</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E249">
-        <v>0.133889114822734</v>
+        <v>0.1330313321905566</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1331715166024461</v>
+        <v>0.1323648992186699</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1326692970709988</v>
+        <v>0.1321773975391194</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1326550063568332</v>
+        <v>0.1319580987445657</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.130876402368575</v>
+        <v>0.1317957800108681</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,7 +4773,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C254" t="s">
         <v>24</v>
@@ -4782,7 +4782,7 @@
         <v>28</v>
       </c>
       <c r="E254">
-        <v>0.129081728531712</v>
+        <v>0.1311307737810751</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1281207271396934</v>
+        <v>0.1307088116312924</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
         <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1274755163262256</v>
+        <v>0.1305012711002524</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E257">
-        <v>0.1266445082028751</v>
+        <v>0.1304471339300928</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4844,13 +4844,13 @@
         <v>6</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0.1256822599667502</v>
+        <v>0.1301632240397236</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E259">
-        <v>0.1255671643901601</v>
+        <v>0.129640744710433</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
         <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1253690700638429</v>
+        <v>0.1270437476715859</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
         <v>28</v>
       </c>
       <c r="E261">
-        <v>0.125104459353967</v>
+        <v>0.1268775032939616</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D262" t="s">
         <v>28</v>
       </c>
       <c r="E262">
-        <v>0.1244655220017828</v>
+        <v>0.1262904213205391</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.124065911799105</v>
+        <v>0.1260819763673164</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
         <v>28</v>
       </c>
       <c r="E264">
-        <v>0.123920822479587</v>
+        <v>0.1255862712056467</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D265" t="s">
         <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1239188471502254</v>
+        <v>0.1250775121637894</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E266">
-        <v>0.123774369328778</v>
+        <v>0.124995314619629</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D267" t="s">
         <v>26</v>
       </c>
       <c r="E267">
-        <v>0.1231338538008586</v>
+        <v>0.1247155030342198</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1230965777198759</v>
+        <v>0.1242651285301884</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1230176598160941</v>
+        <v>0.1228834131548111</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1227760511282594</v>
+        <v>0.1219281483198578</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5065,13 +5065,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1224835245972243</v>
+        <v>0.1219278355372913</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D272" t="s">
         <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1211612803689367</v>
+        <v>0.1209896480834493</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1202804307624235</v>
+        <v>0.120936028533807</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
         <v>25</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E274">
-        <v>0.1199890589597966</v>
+        <v>0.1207997361607147</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D275" t="s">
         <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1189216927236753</v>
+        <v>0.12079656661602</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
         <v>26</v>
       </c>
       <c r="E276">
-        <v>0.1185096031400774</v>
+        <v>0.1199556912229834</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D277" t="s">
         <v>26</v>
       </c>
       <c r="E277">
-        <v>0.1183038861502044</v>
+        <v>0.1198166736205797</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C278" t="s">
         <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1174345669705516</v>
+        <v>0.1193017722418624</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1164176985713072</v>
+        <v>0.119197460069481</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5221,10 +5221,10 @@
         <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E280">
-        <v>0.1163897463302386</v>
+        <v>0.1187650689168213</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E281">
-        <v>0.1162391567445839</v>
+        <v>0.1180924360706921</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E282">
-        <v>0.1159997183692118</v>
+        <v>0.1180767790810811</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C283" t="s">
         <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E283">
-        <v>0.115405584533996</v>
+        <v>0.1172437804679505</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D284" t="s">
         <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1152652064207542</v>
+        <v>0.1164339793947429</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1142932832817701</v>
+        <v>0.1163333484389715</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D286" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E286">
-        <v>0.1141715539509323</v>
+        <v>0.1153833870224523</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1139037451797197</v>
+        <v>0.1150348067477382</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
         <v>26</v>
       </c>
       <c r="E288">
-        <v>0.1138998666561818</v>
+        <v>0.1146202070762696</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1135605170333236</v>
+        <v>0.1119999665360001</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C290" t="s">
         <v>19</v>
       </c>
       <c r="D290" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E290">
-        <v>0.1123592940089228</v>
+        <v>0.1119889681342214</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E291">
-        <v>0.1123115271800344</v>
+        <v>0.1117721526792193</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D292" t="s">
         <v>27</v>
       </c>
       <c r="E292">
-        <v>0.1117475390669186</v>
+        <v>0.1114556425150707</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1117475390669186</v>
+        <v>0.1112534120482939</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C294" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>0.1117475390669186</v>
+        <v>0.1111073919754916</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1115008180796557</v>
+        <v>0.1099149733914145</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1111399819357608</v>
+        <v>0.1098239666937197</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1108514192684458</v>
+        <v>0.1097450868998813</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C298" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1106594900166794</v>
+        <v>0.1093281642442946</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D299" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E299">
-        <v>0.1102194973491893</v>
+        <v>0.1090350118181045</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1101960307034135</v>
+        <v>0.1084836729942335</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1094459918882214</v>
+        <v>0.1084300927798317</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E302">
-        <v>0.1080214586993612</v>
+        <v>0.1084300927798317</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E303">
-        <v>0.1076227643499809</v>
+        <v>0.1084300927798317</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E304">
-        <v>0.1074352329165188</v>
+        <v>0.1082977149423219</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5643,13 +5643,13 @@
         <v>6</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E305">
-        <v>0.1073606200307409</v>
+        <v>0.108270019118906</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
         <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>0.1072500536250404</v>
+        <v>0.1082125076366388</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D307" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1072370976883717</v>
+        <v>0.1077165939926443</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E308">
-        <v>0.1068996014078231</v>
+        <v>0.1062999918932585</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C309" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.1066892528347693</v>
+        <v>0.1060792437176493</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C310" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1062937015621606</v>
+        <v>0.1059245350101823</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C311" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D311" t="s">
         <v>28</v>
       </c>
       <c r="E311">
-        <v>0.1055865735133626</v>
+        <v>0.1049626999795012</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5762,13 +5762,13 @@
         <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E312">
-        <v>0.1053503491583588</v>
+        <v>0.1049408229075121</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D313" t="s">
         <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1048681119739245</v>
+        <v>0.1046223312357558</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D314" t="s">
         <v>26</v>
       </c>
       <c r="E314">
-        <v>0.1048283050950258</v>
+        <v>0.1042139016204149</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1040822363829112</v>
+        <v>0.104045569809927</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.1039663767004155</v>
+        <v>0.1037429156465059</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C317" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D317" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E317">
-        <v>0.1039397804614949</v>
+        <v>0.1025729286991877</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D318" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.1032775967210104</v>
+        <v>0.1023686053866889</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C319" t="s">
         <v>23</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E319">
-        <v>0.10269979763755</v>
+        <v>0.1003877033602631</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C320" t="s">
         <v>23</v>
       </c>
       <c r="D320" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E320">
-        <v>0.1024816571765824</v>
+        <v>0.09965919825852269</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E321">
-        <v>0.1013842899935237</v>
+        <v>0.09938880792547301</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.101333148471827</v>
+        <v>0.09799484561195454</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,7 +5946,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C323" t="s">
         <v>24</v>
@@ -5955,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1005534072117918</v>
+        <v>0.09598315905475388</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5966,13 +5966,13 @@
         <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D324" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E324">
-        <v>0.10047655579563</v>
+        <v>0.09465848933764461</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.09821861788971614</v>
+        <v>0.09464925603659323</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E326">
-        <v>0.09821164761288709</v>
+        <v>0.0927742301902077</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D327" t="s">
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.09683111412678741</v>
+        <v>0.0924817169053227</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09602153787278805</v>
+        <v>0.09127144294349969</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C329" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E329">
-        <v>0.09407006380479602</v>
+        <v>0.09063540166178551</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6068,13 +6068,13 @@
         <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.09377241709601025</v>
+        <v>0.08991730287543784</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6085,13 +6085,13 @@
         <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D331" t="s">
         <v>26</v>
       </c>
       <c r="E331">
-        <v>0.09368939366897716</v>
+        <v>0.08975233444695074</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,7 +6099,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
         <v>21</v>
@@ -6108,7 +6108,7 @@
         <v>28</v>
       </c>
       <c r="E332">
-        <v>0.09331894231046216</v>
+        <v>0.08971902482165731</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C333" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09283131514881819</v>
+        <v>0.08953664225934271</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,7 +6133,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C334" t="s">
         <v>22</v>
@@ -6142,7 +6142,7 @@
         <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09167359478688275</v>
+        <v>0.0891406242614423</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D335" t="s">
         <v>28</v>
       </c>
       <c r="E335">
-        <v>0.09162111443446168</v>
+        <v>0.08900645374864873</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E336">
-        <v>0.09128641887299817</v>
+        <v>0.08794028078080079</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D337" t="s">
         <v>26</v>
       </c>
       <c r="E337">
-        <v>0.088297638267799</v>
+        <v>0.08770359667686281</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E338">
-        <v>0.088260955982199</v>
+        <v>0.08713752094941553</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C339" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>0.08697126955486088</v>
+        <v>0.08598713948548567</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D340" t="s">
         <v>28</v>
       </c>
       <c r="E340">
-        <v>0.08678433779958095</v>
+        <v>0.08429140849037038</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C341" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E341">
-        <v>0.08499817414974649</v>
+        <v>0.08328684837326772</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.08405742898413883</v>
+        <v>0.08286681143386317</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6289,13 +6289,13 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.08381016080711241</v>
+        <v>0.08218549213597391</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.08313008779105417</v>
+        <v>0.08045521470991646</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,7 +6320,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
         <v>22</v>
@@ -6329,7 +6329,7 @@
         <v>26</v>
       </c>
       <c r="E345">
-        <v>0.08054628632285471</v>
+        <v>0.07615811662185734</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D346" t="s">
         <v>26</v>
       </c>
       <c r="E346">
-        <v>0.08032830574414898</v>
+        <v>0.07615289510823536</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C347" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D347" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.08025607021074956</v>
+        <v>0.07607975697452984</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
         <v>28</v>
       </c>
       <c r="E348">
-        <v>0.07668082023732822</v>
+        <v>0.07474644825498071</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D349" t="s">
         <v>26</v>
       </c>
       <c r="E349">
-        <v>0.07618441119995918</v>
+        <v>0.0747146935188238</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C350" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E350">
-        <v>0.07593113268278522</v>
+        <v>0.07450898440878409</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6425,13 +6425,13 @@
         <v>10</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.07485736194073908</v>
+        <v>0.07400406617622109</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C352" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E352">
-        <v>0.07384451610410844</v>
+        <v>0.0739444132370612</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,7 +6456,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
         <v>19</v>
@@ -6465,7 +6465,7 @@
         <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07379511791397278</v>
+        <v>0.0733966889455766</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C354" t="s">
         <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E354">
-        <v>0.07344430984656872</v>
+        <v>0.07332078152273321</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C355" t="s">
         <v>23</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E355">
-        <v>0.07343663485443944</v>
+        <v>0.07309358386430079</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E356">
-        <v>0.07307815111638737</v>
+        <v>0.07229634247580202</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C357" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D357" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.07278474383193342</v>
+        <v>0.07225832657707215</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C358" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D358" t="s">
         <v>29</v>
       </c>
       <c r="E358">
-        <v>0.07274052975181122</v>
+        <v>0.07123624552271436</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6564,10 +6564,10 @@
         <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E359">
-        <v>0.07222194537105978</v>
+        <v>0.07054240840297618</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07170422450984063</v>
+        <v>0.06996192270179213</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6595,13 +6595,13 @@
         <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.07108049235292301</v>
+        <v>0.06931131365252211</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,7 +6609,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C362" t="s">
         <v>21</v>
@@ -6618,7 +6618,7 @@
         <v>26</v>
       </c>
       <c r="E362">
-        <v>0.06883721032110601</v>
+        <v>0.06881311677972429</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C363" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D363" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.06795675966972764</v>
+        <v>0.06876865984285226</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.06688297438355115</v>
+        <v>0.06507998982931591</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C365" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E365">
-        <v>0.06661420102469739</v>
+        <v>0.06292750319736266</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C366" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366">
-        <v>0.06524026741478858</v>
+        <v>0.05804150077028775</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,7 +6694,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C367" t="s">
         <v>25</v>
@@ -6703,7 +6703,7 @@
         <v>28</v>
       </c>
       <c r="E367">
-        <v>0.06118453069785593</v>
+        <v>0.05786635455322175</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06061476305911972</v>
+        <v>0.05470017886565767</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D369" t="s">
         <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06033313521209481</v>
+        <v>0.05327051399427034</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6748,13 +6748,13 @@
         <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
         <v>26</v>
       </c>
       <c r="E370">
-        <v>0.05942471091332012</v>
+        <v>0.05306290157924388</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,7 +6762,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C371" t="s">
         <v>24</v>
@@ -6771,7 +6771,7 @@
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.05933847934862001</v>
+        <v>0.05184819123598806</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.05862183564029473</v>
+        <v>0.0495694079573701</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,7 +6796,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
         <v>21</v>
@@ -6805,7 +6805,7 @@
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.05496203279704995</v>
+        <v>0.04731813495663304</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C374" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D374" t="s">
         <v>26</v>
       </c>
       <c r="E374">
-        <v>0.05437728684964327</v>
+        <v>0.03698123528493043</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.04570723829480865</v>
+        <v>0.03053983030237603</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E376">
-        <v>0.03856947027635191</v>
+        <v>0.01786761986425628</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C377" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D377" t="s">
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.03721280443648368</v>
+        <v>0.0102880254523769</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D378" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.03588247494688331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E379">
-        <v>0.02105302634326654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6921,10 +6921,10 @@
         <v>25</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>0.01347548849063959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -6949,7 +6949,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C382" t="s">
         <v>23</v>
@@ -6966,10 +6966,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D383" t="s">
         <v>27</v>
@@ -6983,10 +6983,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C384" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -7000,10 +7000,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -7020,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="C386" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7054,7 +7054,7 @@
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C389" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C392" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7190,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="C396" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,10 +7204,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C397" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C398" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C399" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C400" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,7 +7272,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C401" t="s">
         <v>21</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,7 +7323,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C404" t="s">
         <v>21</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7394,7 +7394,7 @@
         <v>12</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,7 +7425,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C410" t="s">
         <v>21</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C411" t="s">
         <v>25</v>
@@ -7459,7 +7459,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C412" t="s">
         <v>25</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C413" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C415" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
